--- a/Excel-XLSX/UN-ZIM.xlsx
+++ b/Excel-XLSX/UN-ZIM.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>2I2w9D</t>
+    <t>Xpxm4b</t>
   </si>
   <si>
     <t>1993</t>
@@ -561,630 +561,633 @@
     <t>67</t>
   </si>
   <si>
-    <t>669</t>
+    <t>668</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>BGD</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>BSN</t>
+  </si>
+  <si>
+    <t>BIH</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>Central African Rep.</t>
+  </si>
+  <si>
+    <t>CAR</t>
+  </si>
+  <si>
+    <t>CAF</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>CHD</t>
+  </si>
+  <si>
+    <t>TCD</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>CMR</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>COB</t>
+  </si>
+  <si>
+    <t>COG</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>Dem. Rep. of the Congo</t>
+  </si>
+  <si>
+    <t>COD</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>448</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>1914</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>4182</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>4695</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>6122</t>
+  </si>
+  <si>
+    <t>328</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>3614</t>
+  </si>
+  <si>
+    <t>6536</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>276</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>2596</t>
+  </si>
+  <si>
+    <t>430</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>2250</t>
+  </si>
+  <si>
+    <t>372</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>2648</t>
+  </si>
+  <si>
+    <t>486</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>3070</t>
+  </si>
+  <si>
+    <t>307</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>3203</t>
+  </si>
+  <si>
+    <t>626</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>2978</t>
+  </si>
+  <si>
+    <t>364</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>4725</t>
+  </si>
+  <si>
+    <t>437</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>4866</t>
+  </si>
+  <si>
+    <t>491</t>
+  </si>
+  <si>
+    <t>2095</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>5414</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>2812</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>5925</t>
+  </si>
+  <si>
+    <t>275</t>
+  </si>
+  <si>
+    <t>1317</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>6296</t>
+  </si>
+  <si>
+    <t>245</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>6489</t>
+  </si>
+  <si>
+    <t>1963</t>
+  </si>
+  <si>
+    <t>587</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>7483</t>
+  </si>
+  <si>
+    <t>2977</t>
+  </si>
+  <si>
+    <t>636</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>7757</t>
+  </si>
+  <si>
+    <t>3260</t>
+  </si>
+  <si>
+    <t>658</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>7994</t>
+  </si>
+  <si>
+    <t>3187</t>
+  </si>
+  <si>
+    <t>575</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>8919</t>
+  </si>
+  <si>
+    <t>2856</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>8633</t>
+  </si>
+  <si>
+    <t>3530</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>CUB</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>ERT</t>
+  </si>
+  <si>
+    <t>ERI</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>206</t>
   </si>
   <si>
     <t>207</t>
   </si>
   <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>Bangladesh</t>
-  </si>
-  <si>
-    <t>BGD</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>Bosnia and Herzegovina</t>
-  </si>
-  <si>
-    <t>BSN</t>
-  </si>
-  <si>
-    <t>BIH</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>Central African Rep.</t>
-  </si>
-  <si>
-    <t>CAR</t>
-  </si>
-  <si>
-    <t>CAF</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>Chad</t>
-  </si>
-  <si>
-    <t>CHD</t>
-  </si>
-  <si>
-    <t>TCD</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
-    <t>CMR</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>Congo</t>
-  </si>
-  <si>
-    <t>COB</t>
-  </si>
-  <si>
-    <t>COG</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>Dem. Rep. of the Congo</t>
-  </si>
-  <si>
-    <t>COD</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>222</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>448</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>1914</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>4182</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>4695</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>6122</t>
-  </si>
-  <si>
-    <t>328</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>3614</t>
-  </si>
-  <si>
-    <t>6536</t>
-  </si>
-  <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>276</t>
-  </si>
-  <si>
-    <t>137</t>
-  </si>
-  <si>
-    <t>2596</t>
-  </si>
-  <si>
-    <t>430</t>
-  </si>
-  <si>
-    <t>138</t>
-  </si>
-  <si>
-    <t>2250</t>
-  </si>
-  <si>
-    <t>372</t>
-  </si>
-  <si>
-    <t>139</t>
-  </si>
-  <si>
-    <t>2648</t>
-  </si>
-  <si>
-    <t>486</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>3070</t>
-  </si>
-  <si>
-    <t>307</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>3203</t>
-  </si>
-  <si>
-    <t>626</t>
-  </si>
-  <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>2978</t>
-  </si>
-  <si>
-    <t>364</t>
-  </si>
-  <si>
-    <t>143</t>
-  </si>
-  <si>
-    <t>4725</t>
-  </si>
-  <si>
-    <t>437</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>4866</t>
-  </si>
-  <si>
-    <t>491</t>
-  </si>
-  <si>
-    <t>2095</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>5414</t>
-  </si>
-  <si>
-    <t>186</t>
-  </si>
-  <si>
-    <t>2812</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>5925</t>
-  </si>
-  <si>
-    <t>275</t>
-  </si>
-  <si>
-    <t>1317</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>6296</t>
-  </si>
-  <si>
-    <t>245</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>6489</t>
-  </si>
-  <si>
-    <t>1963</t>
-  </si>
-  <si>
-    <t>587</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>7483</t>
-  </si>
-  <si>
-    <t>2977</t>
-  </si>
-  <si>
-    <t>636</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>7757</t>
-  </si>
-  <si>
-    <t>3260</t>
-  </si>
-  <si>
-    <t>658</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>7994</t>
-  </si>
-  <si>
-    <t>3187</t>
-  </si>
-  <si>
-    <t>575</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>8919</t>
-  </si>
-  <si>
-    <t>2856</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>8686</t>
-  </si>
-  <si>
-    <t>3127</t>
-  </si>
-  <si>
-    <t>154</t>
-  </si>
-  <si>
-    <t>Cuba</t>
-  </si>
-  <si>
-    <t>CUB</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>Eritrea</t>
-  </si>
-  <si>
-    <t>ERT</t>
-  </si>
-  <si>
-    <t>ERI</t>
-  </si>
-  <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>162</t>
-  </si>
-  <si>
-    <t>163</t>
-  </si>
-  <si>
-    <t>164</t>
-  </si>
-  <si>
-    <t>165</t>
-  </si>
-  <si>
-    <t>166</t>
-  </si>
-  <si>
-    <t>167</t>
-  </si>
-  <si>
-    <t>169</t>
-  </si>
-  <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>171</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>174</t>
-  </si>
-  <si>
-    <t>175</t>
-  </si>
-  <si>
-    <t>176</t>
-  </si>
-  <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>178</t>
-  </si>
-  <si>
-    <t>1992</t>
-  </si>
-  <si>
-    <t>Ethiopia</t>
-  </si>
-  <si>
-    <t>ETH</t>
-  </si>
-  <si>
-    <t>179</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>181</t>
-  </si>
-  <si>
-    <t>182</t>
-  </si>
-  <si>
-    <t>183</t>
-  </si>
-  <si>
-    <t>184</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>187</t>
-  </si>
-  <si>
-    <t>191</t>
-  </si>
-  <si>
-    <t>188</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>189</t>
-  </si>
-  <si>
-    <t>190</t>
-  </si>
-  <si>
-    <t>192</t>
-  </si>
-  <si>
-    <t>193</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>205</t>
-  </si>
-  <si>
-    <t>206</t>
-  </si>
-  <si>
     <t>208</t>
   </si>
   <si>
@@ -1233,9 +1236,6 @@
     <t>218</t>
   </si>
   <si>
-    <t>219</t>
-  </si>
-  <si>
     <t>221</t>
   </si>
   <si>
@@ -1590,7 +1590,7 @@
     <t>296</t>
   </si>
   <si>
-    <t>8336</t>
+    <t>8373</t>
   </si>
   <si>
     <t>297</t>
@@ -3018,8 +3018,8 @@
       <c r="U2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>34</v>
+      <c r="V2" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -3086,8 +3086,8 @@
       <c r="U3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>34</v>
+      <c r="V3" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -3154,8 +3154,8 @@
       <c r="U4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>34</v>
+      <c r="V4" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5">
@@ -3222,8 +3222,8 @@
       <c r="U5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>34</v>
+      <c r="V5" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6">
@@ -3290,8 +3290,8 @@
       <c r="U6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>34</v>
+      <c r="V6" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7">
@@ -3358,8 +3358,8 @@
       <c r="U7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>34</v>
+      <c r="V7" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8">
@@ -3426,8 +3426,8 @@
       <c r="U8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>34</v>
+      <c r="V8" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9">
@@ -3494,8 +3494,8 @@
       <c r="U9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V9" s="1" t="s">
-        <v>34</v>
+      <c r="V9" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10">
@@ -3562,8 +3562,8 @@
       <c r="U10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>34</v>
+      <c r="V10" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11">
@@ -3630,8 +3630,8 @@
       <c r="U11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>34</v>
+      <c r="V11" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12">
@@ -3698,8 +3698,8 @@
       <c r="U12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V12" s="1" t="s">
-        <v>34</v>
+      <c r="V12" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="13">
@@ -3766,8 +3766,8 @@
       <c r="U13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V13" s="1" t="s">
-        <v>34</v>
+      <c r="V13" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="14">
@@ -3834,8 +3834,8 @@
       <c r="U14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V14" s="1" t="s">
-        <v>34</v>
+      <c r="V14" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15">
@@ -3902,8 +3902,8 @@
       <c r="U15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V15" s="1" t="s">
-        <v>34</v>
+      <c r="V15" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16">
@@ -3970,8 +3970,8 @@
       <c r="U16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V16" s="1" t="s">
-        <v>34</v>
+      <c r="V16" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17">
@@ -4038,8 +4038,8 @@
       <c r="U17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V17" s="1" t="s">
-        <v>34</v>
+      <c r="V17" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="18">
@@ -4106,8 +4106,8 @@
       <c r="U18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V18" s="1" t="s">
-        <v>34</v>
+      <c r="V18" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19">
@@ -4174,8 +4174,8 @@
       <c r="U19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V19" s="1" t="s">
-        <v>34</v>
+      <c r="V19" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="20">
@@ -4242,8 +4242,8 @@
       <c r="U20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V20" s="1" t="s">
-        <v>34</v>
+      <c r="V20" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="21">
@@ -4310,8 +4310,8 @@
       <c r="U21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V21" s="1" t="s">
-        <v>34</v>
+      <c r="V21" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="22">
@@ -4378,8 +4378,8 @@
       <c r="U22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V22" s="1" t="s">
-        <v>34</v>
+      <c r="V22" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="23">
@@ -4446,8 +4446,8 @@
       <c r="U23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V23" s="1" t="s">
-        <v>34</v>
+      <c r="V23" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="24">
@@ -4514,8 +4514,8 @@
       <c r="U24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V24" s="1" t="s">
-        <v>34</v>
+      <c r="V24" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="25">
@@ -4582,8 +4582,8 @@
       <c r="U25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V25" s="1" t="s">
-        <v>34</v>
+      <c r="V25" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="26">
@@ -4650,8 +4650,8 @@
       <c r="U26" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V26" s="1" t="s">
-        <v>34</v>
+      <c r="V26" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="27">
@@ -4718,8 +4718,8 @@
       <c r="U27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V27" s="1" t="s">
-        <v>34</v>
+      <c r="V27" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="28">
@@ -4786,8 +4786,8 @@
       <c r="U28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V28" s="1" t="s">
-        <v>34</v>
+      <c r="V28" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="29">
@@ -4854,8 +4854,8 @@
       <c r="U29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V29" s="1" t="s">
-        <v>34</v>
+      <c r="V29" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="30">
@@ -4922,8 +4922,8 @@
       <c r="U30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V30" s="1" t="s">
-        <v>34</v>
+      <c r="V30" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="31">
@@ -5126,8 +5126,8 @@
       <c r="U33" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V33" s="1" t="s">
-        <v>34</v>
+      <c r="V33" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="34">
@@ -5194,8 +5194,8 @@
       <c r="U34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V34" s="1" t="s">
-        <v>34</v>
+      <c r="V34" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="35">
@@ -5262,8 +5262,8 @@
       <c r="U35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V35" s="1" t="s">
-        <v>34</v>
+      <c r="V35" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="36">
@@ -5330,8 +5330,8 @@
       <c r="U36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V36" s="1" t="s">
-        <v>34</v>
+      <c r="V36" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="37">
@@ -5398,8 +5398,8 @@
       <c r="U37" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V37" s="1" t="s">
-        <v>34</v>
+      <c r="V37" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="38">
@@ -5466,8 +5466,8 @@
       <c r="U38" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V38" s="1" t="s">
-        <v>34</v>
+      <c r="V38" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="39">
@@ -5534,8 +5534,8 @@
       <c r="U39" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V39" s="1" t="s">
-        <v>34</v>
+      <c r="V39" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="40">
@@ -5602,8 +5602,8 @@
       <c r="U40" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V40" s="1" t="s">
-        <v>34</v>
+      <c r="V40" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="41">
@@ -5670,8 +5670,8 @@
       <c r="U41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V41" s="1" t="s">
-        <v>34</v>
+      <c r="V41" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="42">
@@ -5738,8 +5738,8 @@
       <c r="U42" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V42" s="1" t="s">
-        <v>34</v>
+      <c r="V42" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="43">
@@ -5806,8 +5806,8 @@
       <c r="U43" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V43" s="1" t="s">
-        <v>34</v>
+      <c r="V43" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="44">
@@ -5874,8 +5874,8 @@
       <c r="U44" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V44" s="1" t="s">
-        <v>34</v>
+      <c r="V44" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="45">
@@ -5942,8 +5942,8 @@
       <c r="U45" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V45" s="1" t="s">
-        <v>34</v>
+      <c r="V45" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="46">
@@ -6010,8 +6010,8 @@
       <c r="U46" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V46" s="1" t="s">
-        <v>34</v>
+      <c r="V46" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="47">
@@ -6078,8 +6078,8 @@
       <c r="U47" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V47" s="1" t="s">
-        <v>34</v>
+      <c r="V47" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="48">
@@ -6146,8 +6146,8 @@
       <c r="U48" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V48" s="1" t="s">
-        <v>34</v>
+      <c r="V48" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="49">
@@ -6214,8 +6214,8 @@
       <c r="U49" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V49" s="1" t="s">
-        <v>34</v>
+      <c r="V49" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="50">
@@ -6282,8 +6282,8 @@
       <c r="U50" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V50" s="1" t="s">
-        <v>34</v>
+      <c r="V50" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="51">
@@ -6350,8 +6350,8 @@
       <c r="U51" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V51" s="1" t="s">
-        <v>34</v>
+      <c r="V51" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="52">
@@ -6418,8 +6418,8 @@
       <c r="U52" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V52" s="1" t="s">
-        <v>34</v>
+      <c r="V52" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="53">
@@ -6486,8 +6486,8 @@
       <c r="U53" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V53" s="1" t="s">
-        <v>34</v>
+      <c r="V53" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="54">
@@ -6554,8 +6554,8 @@
       <c r="U54" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V54" s="1" t="s">
-        <v>34</v>
+      <c r="V54" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="55">
@@ -6622,8 +6622,8 @@
       <c r="U55" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V55" s="1" t="s">
-        <v>34</v>
+      <c r="V55" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="56">
@@ -6690,8 +6690,8 @@
       <c r="U56" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V56" s="1" t="s">
-        <v>34</v>
+      <c r="V56" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="57">
@@ -6758,8 +6758,8 @@
       <c r="U57" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V57" s="1" t="s">
-        <v>34</v>
+      <c r="V57" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="58">
@@ -6826,8 +6826,8 @@
       <c r="U58" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V58" s="1" t="s">
-        <v>34</v>
+      <c r="V58" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="59">
@@ -6894,8 +6894,8 @@
       <c r="U59" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V59" s="1" t="s">
-        <v>34</v>
+      <c r="V59" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="60">
@@ -6962,8 +6962,8 @@
       <c r="U60" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V60" s="1" t="s">
-        <v>34</v>
+      <c r="V60" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="61">
@@ -7030,8 +7030,8 @@
       <c r="U61" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V61" s="1" t="s">
-        <v>34</v>
+      <c r="V61" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="62">
@@ -7098,8 +7098,8 @@
       <c r="U62" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V62" s="1" t="s">
-        <v>34</v>
+      <c r="V62" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="63">
@@ -7166,8 +7166,8 @@
       <c r="U63" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V63" s="1" t="s">
-        <v>34</v>
+      <c r="V63" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="64">
@@ -7234,8 +7234,8 @@
       <c r="U64" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V64" s="1" t="s">
-        <v>34</v>
+      <c r="V64" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="65">
@@ -7302,8 +7302,8 @@
       <c r="U65" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V65" s="1" t="s">
-        <v>34</v>
+      <c r="V65" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="66">
@@ -7370,8 +7370,8 @@
       <c r="U66" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V66" s="1" t="s">
-        <v>34</v>
+      <c r="V66" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="67">
@@ -7574,8 +7574,8 @@
       <c r="U69" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V69" s="1" t="s">
-        <v>34</v>
+      <c r="V69" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="70">
@@ -7642,8 +7642,8 @@
       <c r="U70" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V70" s="1" t="s">
-        <v>34</v>
+      <c r="V70" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="71">
@@ -7710,8 +7710,8 @@
       <c r="U71" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V71" s="1" t="s">
-        <v>34</v>
+      <c r="V71" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="72">
@@ -7778,8 +7778,8 @@
       <c r="U72" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V72" s="1" t="s">
-        <v>34</v>
+      <c r="V72" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="73">
@@ -7846,8 +7846,8 @@
       <c r="U73" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V73" s="1" t="s">
-        <v>34</v>
+      <c r="V73" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="74">
@@ -7914,8 +7914,8 @@
       <c r="U74" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V74" s="1" t="s">
-        <v>34</v>
+      <c r="V74" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="75">
@@ -7982,8 +7982,8 @@
       <c r="U75" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V75" s="1" t="s">
-        <v>34</v>
+      <c r="V75" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="76">
@@ -8050,8 +8050,8 @@
       <c r="U76" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V76" s="1" t="s">
-        <v>34</v>
+      <c r="V76" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="77">
@@ -8118,8 +8118,8 @@
       <c r="U77" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V77" s="1" t="s">
-        <v>34</v>
+      <c r="V77" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="78">
@@ -8186,8 +8186,8 @@
       <c r="U78" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V78" s="1" t="s">
-        <v>34</v>
+      <c r="V78" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="79">
@@ -8254,8 +8254,8 @@
       <c r="U79" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V79" s="1" t="s">
-        <v>34</v>
+      <c r="V79" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="80">
@@ -8322,8 +8322,8 @@
       <c r="U80" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V80" s="1" t="s">
-        <v>34</v>
+      <c r="V80" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="81">
@@ -8390,8 +8390,8 @@
       <c r="U81" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V81" s="1" t="s">
-        <v>34</v>
+      <c r="V81" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="82">
@@ -8458,8 +8458,8 @@
       <c r="U82" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V82" s="1" t="s">
-        <v>34</v>
+      <c r="V82" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="83">
@@ -8526,8 +8526,8 @@
       <c r="U83" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V83" s="1" t="s">
-        <v>34</v>
+      <c r="V83" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="84">
@@ -8594,8 +8594,8 @@
       <c r="U84" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V84" s="1" t="s">
-        <v>34</v>
+      <c r="V84" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="85">
@@ -8662,8 +8662,8 @@
       <c r="U85" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V85" s="1" t="s">
-        <v>34</v>
+      <c r="V85" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="86">
@@ -8730,8 +8730,8 @@
       <c r="U86" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V86" s="1" t="s">
-        <v>34</v>
+      <c r="V86" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="87">
@@ -8798,8 +8798,8 @@
       <c r="U87" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V87" s="1" t="s">
-        <v>34</v>
+      <c r="V87" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="88">
@@ -9002,8 +9002,8 @@
       <c r="U90" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V90" s="1" t="s">
-        <v>34</v>
+      <c r="V90" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="91">
@@ -9070,8 +9070,8 @@
       <c r="U91" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V91" s="1" t="s">
-        <v>34</v>
+      <c r="V91" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="92">
@@ -9138,8 +9138,8 @@
       <c r="U92" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V92" s="1" t="s">
-        <v>34</v>
+      <c r="V92" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="93">
@@ -9206,8 +9206,8 @@
       <c r="U93" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V93" s="1" t="s">
-        <v>34</v>
+      <c r="V93" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="94">
@@ -9274,8 +9274,8 @@
       <c r="U94" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V94" s="1" t="s">
-        <v>34</v>
+      <c r="V94" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="95">
@@ -9342,8 +9342,8 @@
       <c r="U95" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V95" s="1" t="s">
-        <v>34</v>
+      <c r="V95" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="96">
@@ -9410,8 +9410,8 @@
       <c r="U96" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V96" s="1" t="s">
-        <v>34</v>
+      <c r="V96" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="97">
@@ -9478,8 +9478,8 @@
       <c r="U97" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V97" s="1" t="s">
-        <v>34</v>
+      <c r="V97" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="98">
@@ -9546,8 +9546,8 @@
       <c r="U98" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V98" s="1" t="s">
-        <v>34</v>
+      <c r="V98" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="99">
@@ -9614,8 +9614,8 @@
       <c r="U99" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V99" s="1" t="s">
-        <v>34</v>
+      <c r="V99" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="100">
@@ -9818,8 +9818,8 @@
       <c r="U102" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V102" s="1" t="s">
-        <v>34</v>
+      <c r="V102" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="103">
@@ -9886,8 +9886,8 @@
       <c r="U103" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V103" s="1" t="s">
-        <v>34</v>
+      <c r="V103" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="104">
@@ -9954,8 +9954,8 @@
       <c r="U104" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V104" s="1" t="s">
-        <v>34</v>
+      <c r="V104" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="105">
@@ -10022,8 +10022,8 @@
       <c r="U105" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V105" s="1" t="s">
-        <v>34</v>
+      <c r="V105" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="106">
@@ -10090,8 +10090,8 @@
       <c r="U106" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V106" s="1" t="s">
-        <v>34</v>
+      <c r="V106" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="107">
@@ -10158,8 +10158,8 @@
       <c r="U107" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V107" s="1" t="s">
-        <v>34</v>
+      <c r="V107" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="108">
@@ -10226,8 +10226,8 @@
       <c r="U108" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V108" s="1" t="s">
-        <v>34</v>
+      <c r="V108" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="109">
@@ -10294,8 +10294,8 @@
       <c r="U109" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V109" s="1" t="s">
-        <v>34</v>
+      <c r="V109" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="110">
@@ -10362,8 +10362,8 @@
       <c r="U110" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V110" s="1" t="s">
-        <v>34</v>
+      <c r="V110" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="111">
@@ -10430,8 +10430,8 @@
       <c r="U111" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V111" s="1" t="s">
-        <v>34</v>
+      <c r="V111" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="112">
@@ -10498,8 +10498,8 @@
       <c r="U112" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V112" s="1" t="s">
-        <v>34</v>
+      <c r="V112" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="113">
@@ -10566,8 +10566,8 @@
       <c r="U113" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V113" s="1" t="s">
-        <v>34</v>
+      <c r="V113" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="114">
@@ -10634,8 +10634,8 @@
       <c r="U114" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V114" s="1" t="s">
-        <v>34</v>
+      <c r="V114" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="115">
@@ -10702,8 +10702,8 @@
       <c r="U115" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V115" s="1" t="s">
-        <v>34</v>
+      <c r="V115" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="116">
@@ -10770,8 +10770,8 @@
       <c r="U116" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V116" s="1" t="s">
-        <v>34</v>
+      <c r="V116" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="117">
@@ -10838,8 +10838,8 @@
       <c r="U117" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V117" s="1" t="s">
-        <v>34</v>
+      <c r="V117" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="118">
@@ -10906,8 +10906,8 @@
       <c r="U118" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V118" s="1" t="s">
-        <v>34</v>
+      <c r="V118" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="119">
@@ -10974,8 +10974,8 @@
       <c r="U119" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V119" s="1" t="s">
-        <v>34</v>
+      <c r="V119" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="120">
@@ -11042,8 +11042,8 @@
       <c r="U120" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V120" s="1" t="s">
-        <v>34</v>
+      <c r="V120" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="121">
@@ -11110,8 +11110,8 @@
       <c r="U121" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V121" s="1" t="s">
-        <v>34</v>
+      <c r="V121" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="122">
@@ -11314,8 +11314,8 @@
       <c r="U124" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V124" s="1" t="s">
-        <v>34</v>
+      <c r="V124" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="125">
@@ -11382,8 +11382,8 @@
       <c r="U125" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V125" s="1" t="s">
-        <v>34</v>
+      <c r="V125" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="126">
@@ -11450,8 +11450,8 @@
       <c r="U126" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V126" s="1" t="s">
-        <v>34</v>
+      <c r="V126" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="127">
@@ -11518,8 +11518,8 @@
       <c r="U127" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V127" s="1" t="s">
-        <v>34</v>
+      <c r="V127" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="128">
@@ -11586,8 +11586,8 @@
       <c r="U128" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V128" s="1" t="s">
-        <v>34</v>
+      <c r="V128" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="129">
@@ -11654,8 +11654,8 @@
       <c r="U129" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V129" s="1" t="s">
-        <v>34</v>
+      <c r="V129" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="130">
@@ -11722,8 +11722,8 @@
       <c r="U130" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V130" s="1" t="s">
-        <v>34</v>
+      <c r="V130" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="131">
@@ -11790,8 +11790,8 @@
       <c r="U131" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V131" s="1" t="s">
-        <v>34</v>
+      <c r="V131" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="132">
@@ -11858,8 +11858,8 @@
       <c r="U132" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V132" s="1" t="s">
-        <v>34</v>
+      <c r="V132" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="133">
@@ -11926,8 +11926,8 @@
       <c r="U133" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V133" s="1" t="s">
-        <v>34</v>
+      <c r="V133" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="134">
@@ -11994,8 +11994,8 @@
       <c r="U134" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V134" s="1" t="s">
-        <v>34</v>
+      <c r="V134" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="135">
@@ -12062,8 +12062,8 @@
       <c r="U135" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V135" s="1" t="s">
-        <v>34</v>
+      <c r="V135" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="136">
@@ -12130,8 +12130,8 @@
       <c r="U136" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V136" s="1" t="s">
-        <v>34</v>
+      <c r="V136" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="137">
@@ -12198,8 +12198,8 @@
       <c r="U137" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V137" s="1" t="s">
-        <v>34</v>
+      <c r="V137" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="138">
@@ -12266,8 +12266,8 @@
       <c r="U138" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V138" s="1" t="s">
-        <v>34</v>
+      <c r="V138" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="139">
@@ -12334,8 +12334,8 @@
       <c r="U139" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V139" s="1" t="s">
-        <v>34</v>
+      <c r="V139" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="140">
@@ -12402,8 +12402,8 @@
       <c r="U140" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V140" s="1" t="s">
-        <v>34</v>
+      <c r="V140" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="141">
@@ -12470,8 +12470,8 @@
       <c r="U141" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V141" s="1" t="s">
-        <v>34</v>
+      <c r="V141" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="142">
@@ -12538,8 +12538,8 @@
       <c r="U142" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V142" s="1" t="s">
-        <v>34</v>
+      <c r="V142" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="143">
@@ -12606,8 +12606,8 @@
       <c r="U143" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V143" s="1" t="s">
-        <v>34</v>
+      <c r="V143" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="144">
@@ -12674,8 +12674,8 @@
       <c r="U144" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V144" s="1" t="s">
-        <v>34</v>
+      <c r="V144" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="145">
@@ -12742,8 +12742,8 @@
       <c r="U145" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V145" s="1" t="s">
-        <v>34</v>
+      <c r="V145" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="146">
@@ -12810,8 +12810,8 @@
       <c r="U146" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V146" s="1" t="s">
-        <v>34</v>
+      <c r="V146" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="147">
@@ -12878,8 +12878,8 @@
       <c r="U147" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V147" s="1" t="s">
-        <v>34</v>
+      <c r="V147" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="148">
@@ -12946,8 +12946,8 @@
       <c r="U148" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V148" s="1" t="s">
-        <v>34</v>
+      <c r="V148" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="149">
@@ -13014,8 +13014,8 @@
       <c r="U149" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V149" s="1" t="s">
-        <v>34</v>
+      <c r="V149" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="150">
@@ -13082,8 +13082,8 @@
       <c r="U150" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V150" s="1" t="s">
-        <v>34</v>
+      <c r="V150" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="151">
@@ -13150,8 +13150,8 @@
       <c r="U151" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V151" s="1" t="s">
-        <v>34</v>
+      <c r="V151" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="152">
@@ -13218,8 +13218,8 @@
       <c r="U152" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V152" s="1" t="s">
-        <v>34</v>
+      <c r="V152" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="153">
@@ -13349,7 +13349,7 @@
         <v>33</v>
       </c>
       <c r="T154" s="2" t="s">
-        <v>319</v>
+        <v>181</v>
       </c>
       <c r="U154" s="1" t="s">
         <v>34</v>
@@ -13422,8 +13422,8 @@
       <c r="U155" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V155" s="1" t="s">
-        <v>34</v>
+      <c r="V155" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="156">
@@ -13490,8 +13490,8 @@
       <c r="U156" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V156" s="1" t="s">
-        <v>34</v>
+      <c r="V156" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="157">
@@ -13558,8 +13558,8 @@
       <c r="U157" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V157" s="1" t="s">
-        <v>34</v>
+      <c r="V157" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="158">
@@ -13626,8 +13626,8 @@
       <c r="U158" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V158" s="1" t="s">
-        <v>34</v>
+      <c r="V158" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="159">
@@ -13694,8 +13694,8 @@
       <c r="U159" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V159" s="1" t="s">
-        <v>34</v>
+      <c r="V159" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="160">
@@ -13762,8 +13762,8 @@
       <c r="U160" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V160" s="1" t="s">
-        <v>34</v>
+      <c r="V160" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="161">
@@ -13830,8 +13830,8 @@
       <c r="U161" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V161" s="1" t="s">
-        <v>34</v>
+      <c r="V161" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="162">
@@ -13898,8 +13898,8 @@
       <c r="U162" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V162" s="1" t="s">
-        <v>34</v>
+      <c r="V162" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="163">
@@ -13966,8 +13966,8 @@
       <c r="U163" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V163" s="1" t="s">
-        <v>34</v>
+      <c r="V163" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="164">
@@ -14034,8 +14034,8 @@
       <c r="U164" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V164" s="1" t="s">
-        <v>34</v>
+      <c r="V164" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="165">
@@ -14102,8 +14102,8 @@
       <c r="U165" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V165" s="1" t="s">
-        <v>34</v>
+      <c r="V165" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="166">
@@ -14170,8 +14170,8 @@
       <c r="U166" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V166" s="1" t="s">
-        <v>34</v>
+      <c r="V166" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="167">
@@ -14238,8 +14238,8 @@
       <c r="U167" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V167" s="1" t="s">
-        <v>34</v>
+      <c r="V167" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="168">
@@ -14306,8 +14306,8 @@
       <c r="U168" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V168" s="1" t="s">
-        <v>34</v>
+      <c r="V168" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="169">
@@ -14374,8 +14374,8 @@
       <c r="U169" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V169" s="1" t="s">
-        <v>34</v>
+      <c r="V169" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="170">
@@ -14442,8 +14442,8 @@
       <c r="U170" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V170" s="1" t="s">
-        <v>34</v>
+      <c r="V170" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="171">
@@ -14510,8 +14510,8 @@
       <c r="U171" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V171" s="1" t="s">
-        <v>34</v>
+      <c r="V171" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="172">
@@ -14578,8 +14578,8 @@
       <c r="U172" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V172" s="1" t="s">
-        <v>34</v>
+      <c r="V172" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="173">
@@ -14646,8 +14646,8 @@
       <c r="U173" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V173" s="1" t="s">
-        <v>34</v>
+      <c r="V173" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="174">
@@ -14714,8 +14714,8 @@
       <c r="U174" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V174" s="1" t="s">
-        <v>34</v>
+      <c r="V174" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="175">
@@ -14782,8 +14782,8 @@
       <c r="U175" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V175" s="1" t="s">
-        <v>34</v>
+      <c r="V175" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="176">
@@ -14850,8 +14850,8 @@
       <c r="U176" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V176" s="1" t="s">
-        <v>34</v>
+      <c r="V176" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="177">
@@ -14963,7 +14963,7 @@
         <v>31</v>
       </c>
       <c r="N178" s="2" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="O178" s="2" t="s">
         <v>32</v>
@@ -15054,8 +15054,8 @@
       <c r="U179" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V179" s="1" t="s">
-        <v>34</v>
+      <c r="V179" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="180">
@@ -15122,8 +15122,8 @@
       <c r="U180" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V180" s="1" t="s">
-        <v>34</v>
+      <c r="V180" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="181">
@@ -15190,8 +15190,8 @@
       <c r="U181" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V181" s="1" t="s">
-        <v>34</v>
+      <c r="V181" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="182">
@@ -15258,8 +15258,8 @@
       <c r="U182" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V182" s="1" t="s">
-        <v>34</v>
+      <c r="V182" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="183">
@@ -15326,8 +15326,8 @@
       <c r="U183" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V183" s="1" t="s">
-        <v>34</v>
+      <c r="V183" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="184">
@@ -15394,8 +15394,8 @@
       <c r="U184" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V184" s="1" t="s">
-        <v>34</v>
+      <c r="V184" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="185">
@@ -15462,8 +15462,8 @@
       <c r="U185" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V185" s="1" t="s">
-        <v>34</v>
+      <c r="V185" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="186">
@@ -15530,8 +15530,8 @@
       <c r="U186" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V186" s="1" t="s">
-        <v>34</v>
+      <c r="V186" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="187">
@@ -15598,8 +15598,8 @@
       <c r="U187" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V187" s="1" t="s">
-        <v>34</v>
+      <c r="V187" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="188">
@@ -15666,8 +15666,8 @@
       <c r="U188" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V188" s="1" t="s">
-        <v>34</v>
+      <c r="V188" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="189">
@@ -15734,8 +15734,8 @@
       <c r="U189" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V189" s="1" t="s">
-        <v>34</v>
+      <c r="V189" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="190">
@@ -15802,8 +15802,8 @@
       <c r="U190" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V190" s="1" t="s">
-        <v>34</v>
+      <c r="V190" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="191">
@@ -15870,8 +15870,8 @@
       <c r="U191" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V191" s="1" t="s">
-        <v>34</v>
+      <c r="V191" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="192">
@@ -15938,8 +15938,8 @@
       <c r="U192" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V192" s="1" t="s">
-        <v>34</v>
+      <c r="V192" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="193">
@@ -16006,8 +16006,8 @@
       <c r="U193" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V193" s="1" t="s">
-        <v>34</v>
+      <c r="V193" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="194">
@@ -16074,8 +16074,8 @@
       <c r="U194" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V194" s="1" t="s">
-        <v>34</v>
+      <c r="V194" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="195">
@@ -16142,8 +16142,8 @@
       <c r="U195" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V195" s="1" t="s">
-        <v>34</v>
+      <c r="V195" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="196">
@@ -16210,8 +16210,8 @@
       <c r="U196" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V196" s="1" t="s">
-        <v>34</v>
+      <c r="V196" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="197">
@@ -16278,8 +16278,8 @@
       <c r="U197" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V197" s="1" t="s">
-        <v>34</v>
+      <c r="V197" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="198">
@@ -16346,8 +16346,8 @@
       <c r="U198" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V198" s="1" t="s">
-        <v>34</v>
+      <c r="V198" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="199">
@@ -16414,8 +16414,8 @@
       <c r="U199" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V199" s="1" t="s">
-        <v>34</v>
+      <c r="V199" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="200">
@@ -16482,8 +16482,8 @@
       <c r="U200" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V200" s="1" t="s">
-        <v>34</v>
+      <c r="V200" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="201">
@@ -16550,8 +16550,8 @@
       <c r="U201" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V201" s="1" t="s">
-        <v>34</v>
+      <c r="V201" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="202">
@@ -16618,8 +16618,8 @@
       <c r="U202" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V202" s="1" t="s">
-        <v>34</v>
+      <c r="V202" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="203">
@@ -16686,8 +16686,8 @@
       <c r="U203" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V203" s="1" t="s">
-        <v>34</v>
+      <c r="V203" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="204">
@@ -16754,8 +16754,8 @@
       <c r="U204" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V204" s="1" t="s">
-        <v>34</v>
+      <c r="V204" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="205">
@@ -16822,8 +16822,8 @@
       <c r="U205" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V205" s="1" t="s">
-        <v>34</v>
+      <c r="V205" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="206">
@@ -16890,8 +16890,8 @@
       <c r="U206" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V206" s="1" t="s">
-        <v>34</v>
+      <c r="V206" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="207">
@@ -16973,7 +16973,7 @@
         <v>22</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>182</v>
+        <v>389</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>99</v>
@@ -17003,10 +17003,10 @@
         <v>31</v>
       </c>
       <c r="N208" s="2" t="s">
-        <v>191</v>
+        <v>73</v>
       </c>
       <c r="O208" s="2" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="P208" s="2" t="s">
         <v>33</v>
@@ -17041,7 +17041,7 @@
         <v>22</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E209" s="2" t="s">
         <v>24</v>
@@ -17050,13 +17050,13 @@
         <v>190</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H209" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="I209" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="J209" s="2" t="s">
         <v>28</v>
@@ -17094,8 +17094,8 @@
       <c r="U209" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V209" s="1" t="s">
-        <v>34</v>
+      <c r="V209" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="210">
@@ -17109,7 +17109,7 @@
         <v>22</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>35</v>
@@ -17118,13 +17118,13 @@
         <v>190</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H210" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="I210" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="J210" s="2" t="s">
         <v>28</v>
@@ -17162,8 +17162,8 @@
       <c r="U210" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V210" s="1" t="s">
-        <v>34</v>
+      <c r="V210" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="211">
@@ -17177,7 +17177,7 @@
         <v>22</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E211" s="2" t="s">
         <v>38</v>
@@ -17186,13 +17186,13 @@
         <v>190</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="I211" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="J211" s="2" t="s">
         <v>28</v>
@@ -17230,8 +17230,8 @@
       <c r="U211" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V211" s="1" t="s">
-        <v>34</v>
+      <c r="V211" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="212">
@@ -17245,7 +17245,7 @@
         <v>22</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>41</v>
@@ -17254,13 +17254,13 @@
         <v>190</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H212" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="I212" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="J212" s="2" t="s">
         <v>28</v>
@@ -17298,8 +17298,8 @@
       <c r="U212" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V212" s="1" t="s">
-        <v>34</v>
+      <c r="V212" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="213">
@@ -17322,13 +17322,13 @@
         <v>190</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H213" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="I213" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="J213" s="2" t="s">
         <v>28</v>
@@ -17366,8 +17366,8 @@
       <c r="U213" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V213" s="1" t="s">
-        <v>34</v>
+      <c r="V213" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="214">
@@ -17381,7 +17381,7 @@
         <v>22</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>47</v>
@@ -17390,13 +17390,13 @@
         <v>190</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H214" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="I214" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="J214" s="2" t="s">
         <v>28</v>
@@ -17434,8 +17434,8 @@
       <c r="U214" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V214" s="1" t="s">
-        <v>34</v>
+      <c r="V214" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="215">
@@ -17458,13 +17458,13 @@
         <v>190</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H215" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="I215" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="J215" s="2" t="s">
         <v>28</v>
@@ -17502,8 +17502,8 @@
       <c r="U215" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V215" s="1" t="s">
-        <v>34</v>
+      <c r="V215" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="216">
@@ -17526,13 +17526,13 @@
         <v>190</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H216" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="I216" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="J216" s="2" t="s">
         <v>28</v>
@@ -17570,8 +17570,8 @@
       <c r="U216" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V216" s="1" t="s">
-        <v>34</v>
+      <c r="V216" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="217">
@@ -17585,7 +17585,7 @@
         <v>22</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>51</v>
@@ -17594,13 +17594,13 @@
         <v>198</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H217" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="I217" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J217" s="2" t="s">
         <v>28</v>
@@ -17638,8 +17638,8 @@
       <c r="U217" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V217" s="1" t="s">
-        <v>34</v>
+      <c r="V217" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="218">
@@ -17653,7 +17653,7 @@
         <v>22</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>49</v>
@@ -17662,13 +17662,13 @@
         <v>58</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H218" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="I218" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="J218" s="2" t="s">
         <v>28</v>
@@ -17706,8 +17706,8 @@
       <c r="U218" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V218" s="1" t="s">
-        <v>34</v>
+      <c r="V218" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="219">
@@ -17721,7 +17721,7 @@
         <v>22</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>51</v>
@@ -17730,13 +17730,13 @@
         <v>58</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H219" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="I219" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="J219" s="2" t="s">
         <v>28</v>
@@ -17774,8 +17774,8 @@
       <c r="U219" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V219" s="1" t="s">
-        <v>34</v>
+      <c r="V219" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="220">
@@ -17789,7 +17789,7 @@
         <v>22</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>405</v>
+        <v>182</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>89</v>
@@ -17798,13 +17798,13 @@
         <v>58</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H220" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="I220" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="J220" s="2" t="s">
         <v>28</v>
@@ -17842,8 +17842,8 @@
       <c r="U220" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V220" s="1" t="s">
-        <v>34</v>
+      <c r="V220" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="221">
@@ -17866,13 +17866,13 @@
         <v>58</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H221" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="I221" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="J221" s="2" t="s">
         <v>28</v>
@@ -17910,8 +17910,8 @@
       <c r="U221" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V221" s="1" t="s">
-        <v>34</v>
+      <c r="V221" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="222">
@@ -17934,13 +17934,13 @@
         <v>58</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H222" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="I222" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="J222" s="2" t="s">
         <v>28</v>
@@ -17978,8 +17978,8 @@
       <c r="U222" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V222" s="1" t="s">
-        <v>34</v>
+      <c r="V222" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="223">
@@ -18002,13 +18002,13 @@
         <v>58</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H223" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="I223" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="J223" s="2" t="s">
         <v>28</v>
@@ -18046,8 +18046,8 @@
       <c r="U223" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V223" s="1" t="s">
-        <v>34</v>
+      <c r="V223" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="224">
@@ -18070,13 +18070,13 @@
         <v>58</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H224" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="I224" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="J224" s="2" t="s">
         <v>28</v>
@@ -18114,8 +18114,8 @@
       <c r="U224" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V224" s="1" t="s">
-        <v>34</v>
+      <c r="V224" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="225">
@@ -18138,13 +18138,13 @@
         <v>58</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="I225" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="J225" s="2" t="s">
         <v>28</v>
@@ -18182,8 +18182,8 @@
       <c r="U225" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V225" s="1" t="s">
-        <v>34</v>
+      <c r="V225" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="226">
@@ -18206,13 +18206,13 @@
         <v>58</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H226" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="I226" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="J226" s="2" t="s">
         <v>28</v>
@@ -18250,8 +18250,8 @@
       <c r="U226" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V226" s="1" t="s">
-        <v>34</v>
+      <c r="V226" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="227">
@@ -18274,13 +18274,13 @@
         <v>58</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H227" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="I227" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="J227" s="2" t="s">
         <v>28</v>
@@ -18318,8 +18318,8 @@
       <c r="U227" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V227" s="1" t="s">
-        <v>34</v>
+      <c r="V227" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="228">
@@ -18342,13 +18342,13 @@
         <v>58</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="I228" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="J228" s="2" t="s">
         <v>28</v>
@@ -18386,8 +18386,8 @@
       <c r="U228" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V228" s="1" t="s">
-        <v>34</v>
+      <c r="V228" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="229">
@@ -18410,13 +18410,13 @@
         <v>58</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H229" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="I229" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="J229" s="2" t="s">
         <v>28</v>
@@ -18478,13 +18478,13 @@
         <v>58</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H230" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="I230" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="J230" s="2" t="s">
         <v>28</v>
@@ -18499,7 +18499,7 @@
         <v>31</v>
       </c>
       <c r="N230" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O230" s="2" t="s">
         <v>90</v>
@@ -18590,8 +18590,8 @@
       <c r="U231" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V231" s="1" t="s">
-        <v>34</v>
+      <c r="V231" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="232">
@@ -18658,8 +18658,8 @@
       <c r="U232" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V232" s="1" t="s">
-        <v>34</v>
+      <c r="V232" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="233">
@@ -18726,8 +18726,8 @@
       <c r="U233" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V233" s="1" t="s">
-        <v>34</v>
+      <c r="V233" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="234">
@@ -18794,8 +18794,8 @@
       <c r="U234" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V234" s="1" t="s">
-        <v>34</v>
+      <c r="V234" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="235">
@@ -18862,8 +18862,8 @@
       <c r="U235" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V235" s="1" t="s">
-        <v>34</v>
+      <c r="V235" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="236">
@@ -18930,8 +18930,8 @@
       <c r="U236" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V236" s="1" t="s">
-        <v>34</v>
+      <c r="V236" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="237">
@@ -18998,8 +18998,8 @@
       <c r="U237" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V237" s="1" t="s">
-        <v>34</v>
+      <c r="V237" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="238">
@@ -19066,8 +19066,8 @@
       <c r="U238" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V238" s="1" t="s">
-        <v>34</v>
+      <c r="V238" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="239">
@@ -19134,8 +19134,8 @@
       <c r="U239" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V239" s="1" t="s">
-        <v>34</v>
+      <c r="V239" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="240">
@@ -19202,8 +19202,8 @@
       <c r="U240" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V240" s="1" t="s">
-        <v>34</v>
+      <c r="V240" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="241">
@@ -19270,8 +19270,8 @@
       <c r="U241" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V241" s="1" t="s">
-        <v>34</v>
+      <c r="V241" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="242">
@@ -19338,8 +19338,8 @@
       <c r="U242" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V242" s="1" t="s">
-        <v>34</v>
+      <c r="V242" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="243">
@@ -19474,8 +19474,8 @@
       <c r="U244" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V244" s="1" t="s">
-        <v>34</v>
+      <c r="V244" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="245">
@@ -19542,8 +19542,8 @@
       <c r="U245" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V245" s="1" t="s">
-        <v>34</v>
+      <c r="V245" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="246">
@@ -19610,8 +19610,8 @@
       <c r="U246" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V246" s="1" t="s">
-        <v>34</v>
+      <c r="V246" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="247">
@@ -19678,8 +19678,8 @@
       <c r="U247" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V247" s="1" t="s">
-        <v>34</v>
+      <c r="V247" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="248">
@@ -19746,8 +19746,8 @@
       <c r="U248" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V248" s="1" t="s">
-        <v>34</v>
+      <c r="V248" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="249">
@@ -19814,8 +19814,8 @@
       <c r="U249" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V249" s="1" t="s">
-        <v>34</v>
+      <c r="V249" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="250">
@@ -19882,8 +19882,8 @@
       <c r="U250" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V250" s="1" t="s">
-        <v>34</v>
+      <c r="V250" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="251">
@@ -19950,8 +19950,8 @@
       <c r="U251" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V251" s="1" t="s">
-        <v>34</v>
+      <c r="V251" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="252">
@@ -20018,8 +20018,8 @@
       <c r="U252" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V252" s="1" t="s">
-        <v>34</v>
+      <c r="V252" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="253">
@@ -20086,8 +20086,8 @@
       <c r="U253" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V253" s="1" t="s">
-        <v>34</v>
+      <c r="V253" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="254">
@@ -20154,8 +20154,8 @@
       <c r="U254" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V254" s="1" t="s">
-        <v>34</v>
+      <c r="V254" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="255">
@@ -20222,8 +20222,8 @@
       <c r="U255" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V255" s="1" t="s">
-        <v>34</v>
+      <c r="V255" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="256">
@@ -20290,8 +20290,8 @@
       <c r="U256" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V256" s="1" t="s">
-        <v>34</v>
+      <c r="V256" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="257">
@@ -20358,8 +20358,8 @@
       <c r="U257" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V257" s="1" t="s">
-        <v>34</v>
+      <c r="V257" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="258">
@@ -20426,8 +20426,8 @@
       <c r="U258" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V258" s="1" t="s">
-        <v>34</v>
+      <c r="V258" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="259">
@@ -20494,8 +20494,8 @@
       <c r="U259" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V259" s="1" t="s">
-        <v>34</v>
+      <c r="V259" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="260">
@@ -20562,8 +20562,8 @@
       <c r="U260" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V260" s="1" t="s">
-        <v>34</v>
+      <c r="V260" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="261">
@@ -20630,8 +20630,8 @@
       <c r="U261" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V261" s="1" t="s">
-        <v>34</v>
+      <c r="V261" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="262">
@@ -20698,8 +20698,8 @@
       <c r="U262" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V262" s="1" t="s">
-        <v>34</v>
+      <c r="V262" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="263">
@@ -20766,8 +20766,8 @@
       <c r="U263" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V263" s="1" t="s">
-        <v>34</v>
+      <c r="V263" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="264">
@@ -20834,8 +20834,8 @@
       <c r="U264" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V264" s="1" t="s">
-        <v>34</v>
+      <c r="V264" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="265">
@@ -20902,8 +20902,8 @@
       <c r="U265" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V265" s="1" t="s">
-        <v>34</v>
+      <c r="V265" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="266">
@@ -20970,8 +20970,8 @@
       <c r="U266" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V266" s="1" t="s">
-        <v>34</v>
+      <c r="V266" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="267">
@@ -21038,8 +21038,8 @@
       <c r="U267" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V267" s="1" t="s">
-        <v>34</v>
+      <c r="V267" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="268">
@@ -21242,8 +21242,8 @@
       <c r="U270" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V270" s="1" t="s">
-        <v>34</v>
+      <c r="V270" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="271">
@@ -21310,8 +21310,8 @@
       <c r="U271" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V271" s="1" t="s">
-        <v>34</v>
+      <c r="V271" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="272">
@@ -21378,8 +21378,8 @@
       <c r="U272" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V272" s="1" t="s">
-        <v>34</v>
+      <c r="V272" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="273">
@@ -21446,8 +21446,8 @@
       <c r="U273" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V273" s="1" t="s">
-        <v>34</v>
+      <c r="V273" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="274">
@@ -21514,8 +21514,8 @@
       <c r="U274" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V274" s="1" t="s">
-        <v>34</v>
+      <c r="V274" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="275">
@@ -21582,8 +21582,8 @@
       <c r="U275" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V275" s="1" t="s">
-        <v>34</v>
+      <c r="V275" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="276">
@@ -21650,8 +21650,8 @@
       <c r="U276" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V276" s="1" t="s">
-        <v>34</v>
+      <c r="V276" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="277">
@@ -21718,8 +21718,8 @@
       <c r="U277" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V277" s="1" t="s">
-        <v>34</v>
+      <c r="V277" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="278">
@@ -21786,8 +21786,8 @@
       <c r="U278" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V278" s="1" t="s">
-        <v>34</v>
+      <c r="V278" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="279">
@@ -21854,8 +21854,8 @@
       <c r="U279" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V279" s="1" t="s">
-        <v>34</v>
+      <c r="V279" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="280">
@@ -21922,8 +21922,8 @@
       <c r="U280" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V280" s="1" t="s">
-        <v>34</v>
+      <c r="V280" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="281">
@@ -21990,8 +21990,8 @@
       <c r="U281" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V281" s="1" t="s">
-        <v>34</v>
+      <c r="V281" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="282">
@@ -22058,8 +22058,8 @@
       <c r="U282" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V282" s="1" t="s">
-        <v>34</v>
+      <c r="V282" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="283">
@@ -22126,8 +22126,8 @@
       <c r="U283" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V283" s="1" t="s">
-        <v>34</v>
+      <c r="V283" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="284">
@@ -22194,8 +22194,8 @@
       <c r="U284" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V284" s="1" t="s">
-        <v>34</v>
+      <c r="V284" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="285">
@@ -22262,8 +22262,8 @@
       <c r="U285" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V285" s="1" t="s">
-        <v>34</v>
+      <c r="V285" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="286">
@@ -22330,8 +22330,8 @@
       <c r="U286" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V286" s="1" t="s">
-        <v>34</v>
+      <c r="V286" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="287">
@@ -22398,8 +22398,8 @@
       <c r="U287" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V287" s="1" t="s">
-        <v>34</v>
+      <c r="V287" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="288">
@@ -22466,8 +22466,8 @@
       <c r="U288" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V288" s="1" t="s">
-        <v>34</v>
+      <c r="V288" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="289">
@@ -22534,8 +22534,8 @@
       <c r="U289" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V289" s="1" t="s">
-        <v>34</v>
+      <c r="V289" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="290">
@@ -22602,8 +22602,8 @@
       <c r="U290" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V290" s="1" t="s">
-        <v>34</v>
+      <c r="V290" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="291">
@@ -22670,8 +22670,8 @@
       <c r="U291" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V291" s="1" t="s">
-        <v>34</v>
+      <c r="V291" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="292">
@@ -22738,8 +22738,8 @@
       <c r="U292" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V292" s="1" t="s">
-        <v>34</v>
+      <c r="V292" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="293">
@@ -22806,8 +22806,8 @@
       <c r="U293" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V293" s="1" t="s">
-        <v>34</v>
+      <c r="V293" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="294">
@@ -22874,8 +22874,8 @@
       <c r="U294" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V294" s="1" t="s">
-        <v>34</v>
+      <c r="V294" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="295">
@@ -22942,8 +22942,8 @@
       <c r="U295" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V295" s="1" t="s">
-        <v>34</v>
+      <c r="V295" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="296">
@@ -23146,8 +23146,8 @@
       <c r="U298" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V298" s="1" t="s">
-        <v>34</v>
+      <c r="V298" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="299">
@@ -23214,8 +23214,8 @@
       <c r="U299" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V299" s="1" t="s">
-        <v>34</v>
+      <c r="V299" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="300">
@@ -23282,8 +23282,8 @@
       <c r="U300" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V300" s="1" t="s">
-        <v>34</v>
+      <c r="V300" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="301">
@@ -23350,8 +23350,8 @@
       <c r="U301" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V301" s="1" t="s">
-        <v>34</v>
+      <c r="V301" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="302">
@@ -23418,8 +23418,8 @@
       <c r="U302" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V302" s="1" t="s">
-        <v>34</v>
+      <c r="V302" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="303">
@@ -23486,8 +23486,8 @@
       <c r="U303" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V303" s="1" t="s">
-        <v>34</v>
+      <c r="V303" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="304">
@@ -23554,8 +23554,8 @@
       <c r="U304" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V304" s="1" t="s">
-        <v>34</v>
+      <c r="V304" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="305">
@@ -23622,8 +23622,8 @@
       <c r="U305" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V305" s="1" t="s">
-        <v>34</v>
+      <c r="V305" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="306">
@@ -23690,8 +23690,8 @@
       <c r="U306" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V306" s="1" t="s">
-        <v>34</v>
+      <c r="V306" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="307">
@@ -23758,8 +23758,8 @@
       <c r="U307" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V307" s="1" t="s">
-        <v>34</v>
+      <c r="V307" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="308">
@@ -23826,8 +23826,8 @@
       <c r="U308" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V308" s="1" t="s">
-        <v>34</v>
+      <c r="V308" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="309">
@@ -23894,8 +23894,8 @@
       <c r="U309" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V309" s="1" t="s">
-        <v>34</v>
+      <c r="V309" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="310">
@@ -23962,8 +23962,8 @@
       <c r="U310" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V310" s="1" t="s">
-        <v>34</v>
+      <c r="V310" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="311">
@@ -24030,8 +24030,8 @@
       <c r="U311" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V311" s="1" t="s">
-        <v>34</v>
+      <c r="V311" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="312">
@@ -24098,8 +24098,8 @@
       <c r="U312" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V312" s="1" t="s">
-        <v>34</v>
+      <c r="V312" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="313">
@@ -24166,8 +24166,8 @@
       <c r="U313" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V313" s="1" t="s">
-        <v>34</v>
+      <c r="V313" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="314">
@@ -24234,8 +24234,8 @@
       <c r="U314" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V314" s="1" t="s">
-        <v>34</v>
+      <c r="V314" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="315">
@@ -24302,8 +24302,8 @@
       <c r="U315" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V315" s="1" t="s">
-        <v>34</v>
+      <c r="V315" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="316">
@@ -24370,8 +24370,8 @@
       <c r="U316" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V316" s="1" t="s">
-        <v>34</v>
+      <c r="V316" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="317">
@@ -24438,8 +24438,8 @@
       <c r="U317" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V317" s="1" t="s">
-        <v>34</v>
+      <c r="V317" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="318">
@@ -24506,8 +24506,8 @@
       <c r="U318" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V318" s="1" t="s">
-        <v>34</v>
+      <c r="V318" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="319">
@@ -24551,7 +24551,7 @@
         <v>31</v>
       </c>
       <c r="N319" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O319" s="2" t="s">
         <v>33</v>
@@ -24574,8 +24574,8 @@
       <c r="U319" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V319" s="1" t="s">
-        <v>34</v>
+      <c r="V319" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="320">
@@ -24642,8 +24642,8 @@
       <c r="U320" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V320" s="1" t="s">
-        <v>34</v>
+      <c r="V320" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="321">
@@ -24710,8 +24710,8 @@
       <c r="U321" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V321" s="1" t="s">
-        <v>34</v>
+      <c r="V321" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="322">
@@ -24778,8 +24778,8 @@
       <c r="U322" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V322" s="1" t="s">
-        <v>34</v>
+      <c r="V322" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="323">
@@ -24846,8 +24846,8 @@
       <c r="U323" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V323" s="1" t="s">
-        <v>34</v>
+      <c r="V323" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="324">
@@ -24914,8 +24914,8 @@
       <c r="U324" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V324" s="1" t="s">
-        <v>34</v>
+      <c r="V324" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="325">
@@ -24982,8 +24982,8 @@
       <c r="U325" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V325" s="1" t="s">
-        <v>34</v>
+      <c r="V325" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="326">
@@ -25050,8 +25050,8 @@
       <c r="U326" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V326" s="1" t="s">
-        <v>34</v>
+      <c r="V326" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="327">
@@ -25118,8 +25118,8 @@
       <c r="U327" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V327" s="1" t="s">
-        <v>34</v>
+      <c r="V327" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="328">
@@ -25186,8 +25186,8 @@
       <c r="U328" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V328" s="1" t="s">
-        <v>34</v>
+      <c r="V328" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="329">
@@ -25254,8 +25254,8 @@
       <c r="U329" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V329" s="1" t="s">
-        <v>34</v>
+      <c r="V329" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="330">
@@ -25322,8 +25322,8 @@
       <c r="U330" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V330" s="1" t="s">
-        <v>34</v>
+      <c r="V330" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="331">
@@ -25390,8 +25390,8 @@
       <c r="U331" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V331" s="1" t="s">
-        <v>34</v>
+      <c r="V331" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="332">
@@ -25458,8 +25458,8 @@
       <c r="U332" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V332" s="1" t="s">
-        <v>34</v>
+      <c r="V332" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="333">
@@ -25526,8 +25526,8 @@
       <c r="U333" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V333" s="1" t="s">
-        <v>34</v>
+      <c r="V333" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="334">
@@ -25594,8 +25594,8 @@
       <c r="U334" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V334" s="1" t="s">
-        <v>34</v>
+      <c r="V334" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="335">
@@ -25662,8 +25662,8 @@
       <c r="U335" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V335" s="1" t="s">
-        <v>34</v>
+      <c r="V335" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="336">
@@ -25866,8 +25866,8 @@
       <c r="U338" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V338" s="1" t="s">
-        <v>34</v>
+      <c r="V338" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="339">
@@ -25934,8 +25934,8 @@
       <c r="U339" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V339" s="1" t="s">
-        <v>34</v>
+      <c r="V339" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="340">
@@ -26002,8 +26002,8 @@
       <c r="U340" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V340" s="1" t="s">
-        <v>34</v>
+      <c r="V340" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="341">
@@ -26070,8 +26070,8 @@
       <c r="U341" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V341" s="1" t="s">
-        <v>34</v>
+      <c r="V341" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="342">
@@ -26138,8 +26138,8 @@
       <c r="U342" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V342" s="1" t="s">
-        <v>34</v>
+      <c r="V342" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="343">
@@ -26206,8 +26206,8 @@
       <c r="U343" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V343" s="1" t="s">
-        <v>34</v>
+      <c r="V343" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="344">
@@ -26274,8 +26274,8 @@
       <c r="U344" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V344" s="1" t="s">
-        <v>34</v>
+      <c r="V344" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="345">
@@ -26342,8 +26342,8 @@
       <c r="U345" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V345" s="1" t="s">
-        <v>34</v>
+      <c r="V345" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="346">
@@ -26410,8 +26410,8 @@
       <c r="U346" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V346" s="1" t="s">
-        <v>34</v>
+      <c r="V346" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="347">
@@ -26478,8 +26478,8 @@
       <c r="U347" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V347" s="1" t="s">
-        <v>34</v>
+      <c r="V347" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="348">
@@ -26546,8 +26546,8 @@
       <c r="U348" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V348" s="1" t="s">
-        <v>34</v>
+      <c r="V348" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="349">
@@ -26614,8 +26614,8 @@
       <c r="U349" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V349" s="1" t="s">
-        <v>34</v>
+      <c r="V349" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="350">
@@ -26682,8 +26682,8 @@
       <c r="U350" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V350" s="1" t="s">
-        <v>34</v>
+      <c r="V350" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="351">
@@ -26750,8 +26750,8 @@
       <c r="U351" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V351" s="1" t="s">
-        <v>34</v>
+      <c r="V351" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="352">
@@ -26818,8 +26818,8 @@
       <c r="U352" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V352" s="1" t="s">
-        <v>34</v>
+      <c r="V352" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="353">
@@ -26886,8 +26886,8 @@
       <c r="U353" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V353" s="1" t="s">
-        <v>34</v>
+      <c r="V353" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="354">
@@ -26954,8 +26954,8 @@
       <c r="U354" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V354" s="1" t="s">
-        <v>34</v>
+      <c r="V354" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="355">
@@ -27022,8 +27022,8 @@
       <c r="U355" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V355" s="1" t="s">
-        <v>34</v>
+      <c r="V355" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="356">
@@ -27090,8 +27090,8 @@
       <c r="U356" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V356" s="1" t="s">
-        <v>34</v>
+      <c r="V356" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="357">
@@ -27158,8 +27158,8 @@
       <c r="U357" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V357" s="1" t="s">
-        <v>34</v>
+      <c r="V357" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="358">
@@ -27226,8 +27226,8 @@
       <c r="U358" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V358" s="1" t="s">
-        <v>34</v>
+      <c r="V358" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="359">
@@ -27294,8 +27294,8 @@
       <c r="U359" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V359" s="1" t="s">
-        <v>34</v>
+      <c r="V359" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="360">
@@ -27362,8 +27362,8 @@
       <c r="U360" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V360" s="1" t="s">
-        <v>34</v>
+      <c r="V360" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="361">
@@ -27430,8 +27430,8 @@
       <c r="U361" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V361" s="1" t="s">
-        <v>34</v>
+      <c r="V361" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="362">
@@ -27498,8 +27498,8 @@
       <c r="U362" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V362" s="1" t="s">
-        <v>34</v>
+      <c r="V362" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="363">
@@ -27566,8 +27566,8 @@
       <c r="U363" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V363" s="1" t="s">
-        <v>34</v>
+      <c r="V363" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="364">
@@ -27634,8 +27634,8 @@
       <c r="U364" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V364" s="1" t="s">
-        <v>34</v>
+      <c r="V364" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="365">
@@ -27702,8 +27702,8 @@
       <c r="U365" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V365" s="1" t="s">
-        <v>34</v>
+      <c r="V365" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="366">
@@ -27770,8 +27770,8 @@
       <c r="U366" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V366" s="1" t="s">
-        <v>34</v>
+      <c r="V366" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="367">
@@ -27838,8 +27838,8 @@
       <c r="U367" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V367" s="1" t="s">
-        <v>34</v>
+      <c r="V367" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="368">
@@ -27906,8 +27906,8 @@
       <c r="U368" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V368" s="1" t="s">
-        <v>34</v>
+      <c r="V368" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="369">
@@ -28019,10 +28019,10 @@
         <v>31</v>
       </c>
       <c r="N370" s="2" t="s">
-        <v>153</v>
+        <v>633</v>
       </c>
       <c r="O370" s="2" t="s">
-        <v>133</v>
+        <v>195</v>
       </c>
       <c r="P370" s="2" t="s">
         <v>33</v>
@@ -28037,7 +28037,7 @@
         <v>33</v>
       </c>
       <c r="T370" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="U370" s="1" t="s">
         <v>34</v>
@@ -28110,8 +28110,8 @@
       <c r="U371" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V371" s="1" t="s">
-        <v>34</v>
+      <c r="V371" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="372">
@@ -28178,8 +28178,8 @@
       <c r="U372" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V372" s="1" t="s">
-        <v>34</v>
+      <c r="V372" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="373">
@@ -28246,8 +28246,8 @@
       <c r="U373" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V373" s="1" t="s">
-        <v>34</v>
+      <c r="V373" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="374">
@@ -28314,8 +28314,8 @@
       <c r="U374" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V374" s="1" t="s">
-        <v>34</v>
+      <c r="V374" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="375">
@@ -28382,8 +28382,8 @@
       <c r="U375" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V375" s="1" t="s">
-        <v>34</v>
+      <c r="V375" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="376">
@@ -28450,8 +28450,8 @@
       <c r="U376" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V376" s="1" t="s">
-        <v>34</v>
+      <c r="V376" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="377">
@@ -28518,8 +28518,8 @@
       <c r="U377" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V377" s="1" t="s">
-        <v>34</v>
+      <c r="V377" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="378">
@@ -28586,8 +28586,8 @@
       <c r="U378" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V378" s="1" t="s">
-        <v>34</v>
+      <c r="V378" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="379">
@@ -28654,8 +28654,8 @@
       <c r="U379" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V379" s="1" t="s">
-        <v>34</v>
+      <c r="V379" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="380">
@@ -28722,8 +28722,8 @@
       <c r="U380" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V380" s="1" t="s">
-        <v>34</v>
+      <c r="V380" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="381">
@@ -28790,8 +28790,8 @@
       <c r="U381" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V381" s="1" t="s">
-        <v>34</v>
+      <c r="V381" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="382">
@@ -28858,8 +28858,8 @@
       <c r="U382" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V382" s="1" t="s">
-        <v>34</v>
+      <c r="V382" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="383">
@@ -28926,8 +28926,8 @@
       <c r="U383" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V383" s="1" t="s">
-        <v>34</v>
+      <c r="V383" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="384">
@@ -28994,8 +28994,8 @@
       <c r="U384" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V384" s="1" t="s">
-        <v>34</v>
+      <c r="V384" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="385">
@@ -29062,8 +29062,8 @@
       <c r="U385" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V385" s="1" t="s">
-        <v>34</v>
+      <c r="V385" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="386">
@@ -29130,8 +29130,8 @@
       <c r="U386" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V386" s="1" t="s">
-        <v>34</v>
+      <c r="V386" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="387">
@@ -29198,8 +29198,8 @@
       <c r="U387" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V387" s="1" t="s">
-        <v>34</v>
+      <c r="V387" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="388">
@@ -29266,8 +29266,8 @@
       <c r="U388" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V388" s="1" t="s">
-        <v>34</v>
+      <c r="V388" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="389">
@@ -29334,8 +29334,8 @@
       <c r="U389" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V389" s="1" t="s">
-        <v>34</v>
+      <c r="V389" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="390">
@@ -29402,8 +29402,8 @@
       <c r="U390" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V390" s="1" t="s">
-        <v>34</v>
+      <c r="V390" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="391">
@@ -29470,8 +29470,8 @@
       <c r="U391" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V391" s="1" t="s">
-        <v>34</v>
+      <c r="V391" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="392">
@@ -29538,8 +29538,8 @@
       <c r="U392" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V392" s="1" t="s">
-        <v>34</v>
+      <c r="V392" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="393">
@@ -29606,8 +29606,8 @@
       <c r="U393" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V393" s="1" t="s">
-        <v>34</v>
+      <c r="V393" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="394">
@@ -29674,8 +29674,8 @@
       <c r="U394" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V394" s="1" t="s">
-        <v>34</v>
+      <c r="V394" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="395">
@@ -29742,8 +29742,8 @@
       <c r="U395" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V395" s="1" t="s">
-        <v>34</v>
+      <c r="V395" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="396">
@@ -29946,8 +29946,8 @@
       <c r="U398" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V398" s="1" t="s">
-        <v>34</v>
+      <c r="V398" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="399">
@@ -30014,8 +30014,8 @@
       <c r="U399" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V399" s="1" t="s">
-        <v>34</v>
+      <c r="V399" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="400">
@@ -30082,8 +30082,8 @@
       <c r="U400" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V400" s="1" t="s">
-        <v>34</v>
+      <c r="V400" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="401">
@@ -30150,8 +30150,8 @@
       <c r="U401" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V401" s="1" t="s">
-        <v>34</v>
+      <c r="V401" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="402">
@@ -30218,8 +30218,8 @@
       <c r="U402" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V402" s="1" t="s">
-        <v>34</v>
+      <c r="V402" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="403">
@@ -30263,7 +30263,7 @@
         <v>31</v>
       </c>
       <c r="N403" s="2" t="s">
-        <v>405</v>
+        <v>182</v>
       </c>
       <c r="O403" s="2" t="s">
         <v>33</v>
@@ -30286,8 +30286,8 @@
       <c r="U403" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V403" s="1" t="s">
-        <v>34</v>
+      <c r="V403" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="404">
@@ -30354,8 +30354,8 @@
       <c r="U404" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V404" s="1" t="s">
-        <v>34</v>
+      <c r="V404" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="405">
@@ -30422,8 +30422,8 @@
       <c r="U405" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V405" s="1" t="s">
-        <v>34</v>
+      <c r="V405" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="406">
@@ -30490,8 +30490,8 @@
       <c r="U406" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V406" s="1" t="s">
-        <v>34</v>
+      <c r="V406" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="407">
@@ -30558,8 +30558,8 @@
       <c r="U407" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V407" s="1" t="s">
-        <v>34</v>
+      <c r="V407" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="408">
@@ -30626,8 +30626,8 @@
       <c r="U408" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V408" s="1" t="s">
-        <v>34</v>
+      <c r="V408" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="409">
@@ -30671,7 +30671,7 @@
         <v>31</v>
       </c>
       <c r="N409" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O409" s="2" t="s">
         <v>33</v>
@@ -30694,8 +30694,8 @@
       <c r="U409" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V409" s="1" t="s">
-        <v>34</v>
+      <c r="V409" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="410">
@@ -30762,8 +30762,8 @@
       <c r="U410" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V410" s="1" t="s">
-        <v>34</v>
+      <c r="V410" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="411">
@@ -30830,8 +30830,8 @@
       <c r="U411" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V411" s="1" t="s">
-        <v>34</v>
+      <c r="V411" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="412">
@@ -30898,8 +30898,8 @@
       <c r="U412" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V412" s="1" t="s">
-        <v>34</v>
+      <c r="V412" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="413">
@@ -30966,8 +30966,8 @@
       <c r="U413" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V413" s="1" t="s">
-        <v>34</v>
+      <c r="V413" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="414">
@@ -31034,8 +31034,8 @@
       <c r="U414" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V414" s="1" t="s">
-        <v>34</v>
+      <c r="V414" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="415">
@@ -31102,8 +31102,8 @@
       <c r="U415" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V415" s="1" t="s">
-        <v>34</v>
+      <c r="V415" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="416">
@@ -31170,8 +31170,8 @@
       <c r="U416" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V416" s="1" t="s">
-        <v>34</v>
+      <c r="V416" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="417">
@@ -31238,8 +31238,8 @@
       <c r="U417" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V417" s="1" t="s">
-        <v>34</v>
+      <c r="V417" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="418">
@@ -31306,8 +31306,8 @@
       <c r="U418" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V418" s="1" t="s">
-        <v>34</v>
+      <c r="V418" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="419">
@@ -31374,8 +31374,8 @@
       <c r="U419" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V419" s="1" t="s">
-        <v>34</v>
+      <c r="V419" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="420">
@@ -31442,8 +31442,8 @@
       <c r="U420" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V420" s="1" t="s">
-        <v>34</v>
+      <c r="V420" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="421">
@@ -31510,8 +31510,8 @@
       <c r="U421" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V421" s="1" t="s">
-        <v>34</v>
+      <c r="V421" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="422">
@@ -31578,8 +31578,8 @@
       <c r="U422" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V422" s="1" t="s">
-        <v>34</v>
+      <c r="V422" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="423">
@@ -31646,8 +31646,8 @@
       <c r="U423" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V423" s="1" t="s">
-        <v>34</v>
+      <c r="V423" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="424">
@@ -31714,8 +31714,8 @@
       <c r="U424" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V424" s="1" t="s">
-        <v>34</v>
+      <c r="V424" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="425">
@@ -31827,10 +31827,10 @@
         <v>31</v>
       </c>
       <c r="N426" s="2" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="O426" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="P426" s="2" t="s">
         <v>33</v>
@@ -31918,8 +31918,8 @@
       <c r="U427" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V427" s="1" t="s">
-        <v>34</v>
+      <c r="V427" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="428">
@@ -31986,8 +31986,8 @@
       <c r="U428" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V428" s="1" t="s">
-        <v>34</v>
+      <c r="V428" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="429">
@@ -32054,8 +32054,8 @@
       <c r="U429" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V429" s="1" t="s">
-        <v>34</v>
+      <c r="V429" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="430">
@@ -32122,8 +32122,8 @@
       <c r="U430" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V430" s="1" t="s">
-        <v>34</v>
+      <c r="V430" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="431">
@@ -32190,8 +32190,8 @@
       <c r="U431" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V431" s="1" t="s">
-        <v>34</v>
+      <c r="V431" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="432">
@@ -32258,8 +32258,8 @@
       <c r="U432" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V432" s="1" t="s">
-        <v>34</v>
+      <c r="V432" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="433">
@@ -32326,8 +32326,8 @@
       <c r="U433" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V433" s="1" t="s">
-        <v>34</v>
+      <c r="V433" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="434">
@@ -32394,8 +32394,8 @@
       <c r="U434" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V434" s="1" t="s">
-        <v>34</v>
+      <c r="V434" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="435">
@@ -32462,8 +32462,8 @@
       <c r="U435" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V435" s="1" t="s">
-        <v>34</v>
+      <c r="V435" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="436">
@@ -32530,8 +32530,8 @@
       <c r="U436" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V436" s="1" t="s">
-        <v>34</v>
+      <c r="V436" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="437">
@@ -32598,8 +32598,8 @@
       <c r="U437" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V437" s="1" t="s">
-        <v>34</v>
+      <c r="V437" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="438">
@@ -32666,8 +32666,8 @@
       <c r="U438" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V438" s="1" t="s">
-        <v>34</v>
+      <c r="V438" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="439">
@@ -32734,8 +32734,8 @@
       <c r="U439" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V439" s="1" t="s">
-        <v>34</v>
+      <c r="V439" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="440">
@@ -32802,8 +32802,8 @@
       <c r="U440" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V440" s="1" t="s">
-        <v>34</v>
+      <c r="V440" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="441">
@@ -32870,8 +32870,8 @@
       <c r="U441" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V441" s="1" t="s">
-        <v>34</v>
+      <c r="V441" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="442">
@@ -32938,8 +32938,8 @@
       <c r="U442" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V442" s="1" t="s">
-        <v>34</v>
+      <c r="V442" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="443">
@@ -33006,8 +33006,8 @@
       <c r="U443" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V443" s="1" t="s">
-        <v>34</v>
+      <c r="V443" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="444">
@@ -33074,8 +33074,8 @@
       <c r="U444" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V444" s="1" t="s">
-        <v>34</v>
+      <c r="V444" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="445">
@@ -33142,8 +33142,8 @@
       <c r="U445" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V445" s="1" t="s">
-        <v>34</v>
+      <c r="V445" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="446">
@@ -33210,8 +33210,8 @@
       <c r="U446" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V446" s="1" t="s">
-        <v>34</v>
+      <c r="V446" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="447">
@@ -33278,8 +33278,8 @@
       <c r="U447" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V447" s="1" t="s">
-        <v>34</v>
+      <c r="V447" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="448">
@@ -33346,8 +33346,8 @@
       <c r="U448" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V448" s="1" t="s">
-        <v>34</v>
+      <c r="V448" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="449">
@@ -33414,8 +33414,8 @@
       <c r="U449" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V449" s="1" t="s">
-        <v>34</v>
+      <c r="V449" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="450">
@@ -33482,8 +33482,8 @@
       <c r="U450" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V450" s="1" t="s">
-        <v>34</v>
+      <c r="V450" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="451">
@@ -33550,8 +33550,8 @@
       <c r="U451" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V451" s="1" t="s">
-        <v>34</v>
+      <c r="V451" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="452">
@@ -33618,8 +33618,8 @@
       <c r="U452" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V452" s="1" t="s">
-        <v>34</v>
+      <c r="V452" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="453">
@@ -33686,8 +33686,8 @@
       <c r="U453" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V453" s="1" t="s">
-        <v>34</v>
+      <c r="V453" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="454">
@@ -33799,7 +33799,7 @@
         <v>31</v>
       </c>
       <c r="N455" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="O455" s="2" t="s">
         <v>33</v>
@@ -33890,8 +33890,8 @@
       <c r="U456" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V456" s="1" t="s">
-        <v>34</v>
+      <c r="V456" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="457">
@@ -33958,8 +33958,8 @@
       <c r="U457" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V457" s="1" t="s">
-        <v>34</v>
+      <c r="V457" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="458">
@@ -34026,8 +34026,8 @@
       <c r="U458" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V458" s="1" t="s">
-        <v>34</v>
+      <c r="V458" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="459">
@@ -34094,8 +34094,8 @@
       <c r="U459" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V459" s="1" t="s">
-        <v>34</v>
+      <c r="V459" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="460">
@@ -34207,7 +34207,7 @@
         <v>31</v>
       </c>
       <c r="N461" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O461" s="2" t="s">
         <v>87</v>
@@ -34298,8 +34298,8 @@
       <c r="U462" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V462" s="1" t="s">
-        <v>34</v>
+      <c r="V462" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="463">
@@ -34366,8 +34366,8 @@
       <c r="U463" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V463" s="1" t="s">
-        <v>34</v>
+      <c r="V463" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="464">
@@ -34434,8 +34434,8 @@
       <c r="U464" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V464" s="1" t="s">
-        <v>34</v>
+      <c r="V464" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="465">
@@ -34502,8 +34502,8 @@
       <c r="U465" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V465" s="1" t="s">
-        <v>34</v>
+      <c r="V465" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="466">
@@ -34570,8 +34570,8 @@
       <c r="U466" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V466" s="1" t="s">
-        <v>34</v>
+      <c r="V466" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="467">
@@ -34638,8 +34638,8 @@
       <c r="U467" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V467" s="1" t="s">
-        <v>34</v>
+      <c r="V467" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="468">
@@ -34706,8 +34706,8 @@
       <c r="U468" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V468" s="1" t="s">
-        <v>34</v>
+      <c r="V468" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="469">
@@ -34774,8 +34774,8 @@
       <c r="U469" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V469" s="1" t="s">
-        <v>34</v>
+      <c r="V469" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="470">
@@ -34842,8 +34842,8 @@
       <c r="U470" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V470" s="1" t="s">
-        <v>34</v>
+      <c r="V470" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="471">
@@ -34910,8 +34910,8 @@
       <c r="U471" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V471" s="1" t="s">
-        <v>34</v>
+      <c r="V471" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="472">
@@ -34978,8 +34978,8 @@
       <c r="U472" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V472" s="1" t="s">
-        <v>34</v>
+      <c r="V472" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="473">
@@ -35046,8 +35046,8 @@
       <c r="U473" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V473" s="1" t="s">
-        <v>34</v>
+      <c r="V473" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="474">
@@ -35114,8 +35114,8 @@
       <c r="U474" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V474" s="1" t="s">
-        <v>34</v>
+      <c r="V474" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="475">
@@ -35182,8 +35182,8 @@
       <c r="U475" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V475" s="1" t="s">
-        <v>34</v>
+      <c r="V475" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="476">
@@ -35250,8 +35250,8 @@
       <c r="U476" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V476" s="1" t="s">
-        <v>34</v>
+      <c r="V476" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="477">
@@ -35318,8 +35318,8 @@
       <c r="U477" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V477" s="1" t="s">
-        <v>34</v>
+      <c r="V477" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="478">
@@ -35386,8 +35386,8 @@
       <c r="U478" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V478" s="1" t="s">
-        <v>34</v>
+      <c r="V478" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="479">
@@ -35454,8 +35454,8 @@
       <c r="U479" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V479" s="1" t="s">
-        <v>34</v>
+      <c r="V479" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="480">
@@ -35522,8 +35522,8 @@
       <c r="U480" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V480" s="1" t="s">
-        <v>34</v>
+      <c r="V480" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="481">
@@ -35590,8 +35590,8 @@
       <c r="U481" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V481" s="1" t="s">
-        <v>34</v>
+      <c r="V481" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="482">
@@ -35658,8 +35658,8 @@
       <c r="U482" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V482" s="1" t="s">
-        <v>34</v>
+      <c r="V482" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="483">
@@ -35726,8 +35726,8 @@
       <c r="U483" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V483" s="1" t="s">
-        <v>34</v>
+      <c r="V483" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="484">
@@ -35794,8 +35794,8 @@
       <c r="U484" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V484" s="1" t="s">
-        <v>34</v>
+      <c r="V484" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="485">
@@ -35862,8 +35862,8 @@
       <c r="U485" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V485" s="1" t="s">
-        <v>34</v>
+      <c r="V485" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="486">
@@ -35930,8 +35930,8 @@
       <c r="U486" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V486" s="1" t="s">
-        <v>34</v>
+      <c r="V486" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="487">
@@ -35998,8 +35998,8 @@
       <c r="U487" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V487" s="1" t="s">
-        <v>34</v>
+      <c r="V487" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="488">
@@ -36066,8 +36066,8 @@
       <c r="U488" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V488" s="1" t="s">
-        <v>34</v>
+      <c r="V488" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="489">
@@ -36134,8 +36134,8 @@
       <c r="U489" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V489" s="1" t="s">
-        <v>34</v>
+      <c r="V489" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="490">
@@ -36202,8 +36202,8 @@
       <c r="U490" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V490" s="1" t="s">
-        <v>34</v>
+      <c r="V490" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="491">
@@ -36270,8 +36270,8 @@
       <c r="U491" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V491" s="1" t="s">
-        <v>34</v>
+      <c r="V491" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="492">
@@ -36338,8 +36338,8 @@
       <c r="U492" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V492" s="1" t="s">
-        <v>34</v>
+      <c r="V492" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="493">
@@ -36406,8 +36406,8 @@
       <c r="U493" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V493" s="1" t="s">
-        <v>34</v>
+      <c r="V493" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="494">
@@ -36474,8 +36474,8 @@
       <c r="U494" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V494" s="1" t="s">
-        <v>34</v>
+      <c r="V494" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="495">
@@ -36542,8 +36542,8 @@
       <c r="U495" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V495" s="1" t="s">
-        <v>34</v>
+      <c r="V495" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="496">
@@ -36610,8 +36610,8 @@
       <c r="U496" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V496" s="1" t="s">
-        <v>34</v>
+      <c r="V496" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="497">
@@ -36678,8 +36678,8 @@
       <c r="U497" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V497" s="1" t="s">
-        <v>34</v>
+      <c r="V497" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="498">
@@ -36746,8 +36746,8 @@
       <c r="U498" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V498" s="1" t="s">
-        <v>34</v>
+      <c r="V498" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="499">
@@ -36814,8 +36814,8 @@
       <c r="U499" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V499" s="1" t="s">
-        <v>34</v>
+      <c r="V499" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="500">
@@ -36882,8 +36882,8 @@
       <c r="U500" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V500" s="1" t="s">
-        <v>34</v>
+      <c r="V500" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="501">
@@ -36950,8 +36950,8 @@
       <c r="U501" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V501" s="1" t="s">
-        <v>34</v>
+      <c r="V501" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="502">
@@ -37018,8 +37018,8 @@
       <c r="U502" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V502" s="1" t="s">
-        <v>34</v>
+      <c r="V502" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="503">
@@ -37086,8 +37086,8 @@
       <c r="U503" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V503" s="1" t="s">
-        <v>34</v>
+      <c r="V503" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="504">
@@ -37199,7 +37199,7 @@
         <v>31</v>
       </c>
       <c r="N505" s="2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="O505" s="2" t="s">
         <v>33</v>
@@ -37243,7 +37243,7 @@
         <v>51</v>
       </c>
       <c r="F506" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G506" s="1" t="s">
         <v>782</v>
@@ -37290,8 +37290,8 @@
       <c r="U506" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V506" s="1" t="s">
-        <v>34</v>
+      <c r="V506" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="507">
@@ -37311,7 +37311,7 @@
         <v>108</v>
       </c>
       <c r="F507" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G507" s="1" t="s">
         <v>782</v>
@@ -37358,8 +37358,8 @@
       <c r="U507" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V507" s="1" t="s">
-        <v>34</v>
+      <c r="V507" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="508">
@@ -37379,7 +37379,7 @@
         <v>169</v>
       </c>
       <c r="F508" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G508" s="1" t="s">
         <v>782</v>
@@ -37426,8 +37426,8 @@
       <c r="U508" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V508" s="1" t="s">
-        <v>34</v>
+      <c r="V508" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="509">
@@ -37447,7 +37447,7 @@
         <v>173</v>
       </c>
       <c r="F509" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G509" s="1" t="s">
         <v>782</v>
@@ -37494,8 +37494,8 @@
       <c r="U509" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V509" s="1" t="s">
-        <v>34</v>
+      <c r="V509" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="510">
@@ -37515,7 +37515,7 @@
         <v>95</v>
       </c>
       <c r="F510" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G510" s="1" t="s">
         <v>782</v>
@@ -37562,8 +37562,8 @@
       <c r="U510" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V510" s="1" t="s">
-        <v>34</v>
+      <c r="V510" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="511">
@@ -37583,7 +37583,7 @@
         <v>97</v>
       </c>
       <c r="F511" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G511" s="1" t="s">
         <v>782</v>
@@ -37651,7 +37651,7 @@
         <v>99</v>
       </c>
       <c r="F512" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G512" s="1" t="s">
         <v>782</v>
@@ -37766,8 +37766,8 @@
       <c r="U513" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V513" s="1" t="s">
-        <v>34</v>
+      <c r="V513" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="514">
@@ -37834,8 +37834,8 @@
       <c r="U514" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V514" s="1" t="s">
-        <v>34</v>
+      <c r="V514" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="515">
@@ -37902,8 +37902,8 @@
       <c r="U515" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V515" s="1" t="s">
-        <v>34</v>
+      <c r="V515" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="516">
@@ -37970,8 +37970,8 @@
       <c r="U516" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V516" s="1" t="s">
-        <v>34</v>
+      <c r="V516" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="517">
@@ -38038,8 +38038,8 @@
       <c r="U517" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V517" s="1" t="s">
-        <v>34</v>
+      <c r="V517" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="518">
@@ -38106,8 +38106,8 @@
       <c r="U518" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V518" s="1" t="s">
-        <v>34</v>
+      <c r="V518" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="519">
@@ -38174,8 +38174,8 @@
       <c r="U519" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V519" s="1" t="s">
-        <v>34</v>
+      <c r="V519" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="520">
@@ -38242,8 +38242,8 @@
       <c r="U520" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V520" s="1" t="s">
-        <v>34</v>
+      <c r="V520" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="521">
@@ -38310,8 +38310,8 @@
       <c r="U521" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V521" s="1" t="s">
-        <v>34</v>
+      <c r="V521" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="522">
@@ -38378,8 +38378,8 @@
       <c r="U522" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V522" s="1" t="s">
-        <v>34</v>
+      <c r="V522" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="523">
@@ -38446,8 +38446,8 @@
       <c r="U523" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V523" s="1" t="s">
-        <v>34</v>
+      <c r="V523" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="524">
@@ -38577,7 +38577,7 @@
         <v>33</v>
       </c>
       <c r="T525" s="2" t="s">
-        <v>69</v>
+        <v>266</v>
       </c>
       <c r="U525" s="1" t="s">
         <v>34</v>
@@ -38603,7 +38603,7 @@
         <v>107</v>
       </c>
       <c r="F526" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G526" s="1" t="s">
         <v>807</v>
@@ -38650,8 +38650,8 @@
       <c r="U526" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V526" s="1" t="s">
-        <v>34</v>
+      <c r="V526" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="527">
@@ -38718,8 +38718,8 @@
       <c r="U527" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V527" s="1" t="s">
-        <v>34</v>
+      <c r="V527" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="528">
@@ -38786,8 +38786,8 @@
       <c r="U528" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V528" s="1" t="s">
-        <v>34</v>
+      <c r="V528" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="529">
@@ -38854,8 +38854,8 @@
       <c r="U529" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V529" s="1" t="s">
-        <v>34</v>
+      <c r="V529" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="530">
@@ -38922,8 +38922,8 @@
       <c r="U530" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V530" s="1" t="s">
-        <v>34</v>
+      <c r="V530" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="531">
@@ -38990,8 +38990,8 @@
       <c r="U531" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V531" s="1" t="s">
-        <v>34</v>
+      <c r="V531" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="532">
@@ -39058,8 +39058,8 @@
       <c r="U532" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V532" s="1" t="s">
-        <v>34</v>
+      <c r="V532" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="533">
@@ -39126,8 +39126,8 @@
       <c r="U533" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V533" s="1" t="s">
-        <v>34</v>
+      <c r="V533" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="534">
@@ -39194,8 +39194,8 @@
       <c r="U534" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V534" s="1" t="s">
-        <v>34</v>
+      <c r="V534" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="535">
@@ -39262,8 +39262,8 @@
       <c r="U535" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V535" s="1" t="s">
-        <v>34</v>
+      <c r="V535" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="536">
@@ -39330,8 +39330,8 @@
       <c r="U536" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V536" s="1" t="s">
-        <v>34</v>
+      <c r="V536" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="537">
@@ -39398,8 +39398,8 @@
       <c r="U537" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V537" s="1" t="s">
-        <v>34</v>
+      <c r="V537" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="538">
@@ -39466,8 +39466,8 @@
       <c r="U538" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V538" s="1" t="s">
-        <v>34</v>
+      <c r="V538" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-ZIM.xlsx
+++ b/Excel-XLSX/UN-ZIM.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>Xpxm4b</t>
+    <t>9UzbA5</t>
   </si>
   <si>
     <t>1980</t>
@@ -2517,10 +2517,13 @@
     <t>543</t>
   </si>
   <si>
-    <t>8258</t>
-  </si>
-  <si>
-    <t>3766</t>
+    <t>8045</t>
+  </si>
+  <si>
+    <t>4102</t>
+  </si>
+  <si>
+    <t>666</t>
   </si>
   <si>
     <t>544</t>
@@ -2538,16 +2541,13 @@
     <t>548</t>
   </si>
   <si>
-    <t>8405</t>
+    <t>8455</t>
   </si>
   <si>
     <t>549</t>
   </si>
   <si>
     <t>550</t>
-  </si>
-  <si>
-    <t>576</t>
   </si>
   <si>
     <t>553</t>
@@ -39645,10 +39645,10 @@
         <v>32</v>
       </c>
       <c r="N540" s="2" t="s">
-        <v>829</v>
+        <v>789</v>
       </c>
       <c r="O540" s="2" t="s">
-        <v>418</v>
+        <v>457</v>
       </c>
       <c r="P540" s="2" t="s">
         <v>34</v>
@@ -39716,7 +39716,7 @@
         <v>34</v>
       </c>
       <c r="O541" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P541" s="2" t="s">
         <v>34</v>
@@ -39849,7 +39849,7 @@
         <v>32</v>
       </c>
       <c r="N543" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O543" s="2" t="s">
         <v>34</v>
@@ -39935,7 +39935,7 @@
         <v>34</v>
       </c>
       <c r="T544" s="2" t="s">
-        <v>806</v>
+        <v>835</v>
       </c>
       <c r="U544" s="1" t="s">
         <v>35</v>
@@ -39955,7 +39955,7 @@
         <v>22</v>
       </c>
       <c r="D545" s="2" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="E545" s="2" t="s">
         <v>827</v>
@@ -39985,7 +39985,7 @@
         <v>32</v>
       </c>
       <c r="N545" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="O545" s="2" t="s">
         <v>47</v>
@@ -40023,7 +40023,7 @@
         <v>22</v>
       </c>
       <c r="D546" s="2" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="E546" s="2" t="s">
         <v>827</v>
@@ -40053,10 +40053,10 @@
         <v>32</v>
       </c>
       <c r="N546" s="2" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="O546" s="2" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="P546" s="2" t="s">
         <v>34</v>
@@ -40091,7 +40091,7 @@
         <v>22</v>
       </c>
       <c r="D547" s="2" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="E547" s="2" t="s">
         <v>827</v>
@@ -40159,7 +40159,7 @@
         <v>22</v>
       </c>
       <c r="D548" s="2" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="E548" s="2" t="s">
         <v>827</v>
@@ -40192,7 +40192,7 @@
         <v>61</v>
       </c>
       <c r="O548" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P548" s="2" t="s">
         <v>34</v>
@@ -40227,7 +40227,7 @@
         <v>22</v>
       </c>
       <c r="D549" s="2" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="E549" s="2" t="s">
         <v>827</v>
@@ -40260,7 +40260,7 @@
         <v>34</v>
       </c>
       <c r="O549" s="2" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="P549" s="2" t="s">
         <v>34</v>
@@ -40295,7 +40295,7 @@
         <v>22</v>
       </c>
       <c r="D550" s="2" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="E550" s="2" t="s">
         <v>827</v>
@@ -40363,7 +40363,7 @@
         <v>22</v>
       </c>
       <c r="D551" s="2" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="E551" s="2" t="s">
         <v>827</v>
@@ -40393,10 +40393,10 @@
         <v>32</v>
       </c>
       <c r="N551" s="2" t="s">
-        <v>843</v>
+        <v>823</v>
       </c>
       <c r="O551" s="2" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="P551" s="2" t="s">
         <v>34</v>
@@ -40532,7 +40532,7 @@
         <v>99</v>
       </c>
       <c r="O553" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="P553" s="2" t="s">
         <v>34</v>
@@ -40887,7 +40887,7 @@
         <v>34</v>
       </c>
       <c r="T558" s="2" t="s">
-        <v>148</v>
+        <v>207</v>
       </c>
       <c r="U558" s="1" t="s">
         <v>35</v>
